--- a/examples/logging_and_report/report_template.xlsx
+++ b/examples/logging_and_report/report_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,18 +14,31 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t xml:space="preserve">Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature [°C] </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="hh:mm"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -46,6 +59,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -90,8 +108,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -104,7 +126,320 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0412381878821568"/>
+          <c:y val="0.0321642852724686"/>
+          <c:w val="0.777063646470261"/>
+          <c:h val="0.907527679841653"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="line"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temperature [°C] </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$A$2:$A$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$B$2:$B$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="27210963"/>
+        <c:axId val="61617290"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="27210963"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="hh:mm" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="61617290"/>
+        <c:crosses val="min"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.000694444444444444"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="61617290"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="27210963"/>
+        <c:crosses val="min"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>36360</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>36000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>599040</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>3600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="852840" y="36000"/>
+        <a:ext cx="10361880" cy="5819760"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -114,19 +449,20 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K40" activeCellId="0" sqref="K40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H41" activeCellId="1" sqref="A2:B72 H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -135,20 +471,213 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A51" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.23"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1"/>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/examples/logging_and_report/report_template.xlsx
+++ b/examples/logging_and_report/report_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+  <si>
+    <t xml:space="preserve">Min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">°C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average</t>
+  </si>
   <si>
     <t xml:space="preserve">Time</t>
   </si>
@@ -33,12 +45,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="hh:mm"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="hh:mm"/>
+    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -65,6 +79,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -74,12 +94,75 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="hair"/>
+      <top style="thin"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top style="thin"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="hair"/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="hair"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -108,12 +191,52 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -151,7 +274,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFD9D9D9"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -189,7 +312,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -201,10 +324,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0412381878821568"/>
-          <c:y val="0.0321642852724686"/>
-          <c:w val="0.777063646470261"/>
-          <c:h val="0.907527679841653"/>
+          <c:x val="0.0412474849094567"/>
+          <c:y val="0.0321662748979339"/>
+          <c:w val="0.777041559703046"/>
+          <c:h val="0.907460101447482"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -240,11 +363,14 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr wrap="none"/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
@@ -256,7 +382,7 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:separator> </c:separator>
+            <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
@@ -270,6 +396,186 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>44595.297662037</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44595.2977199074</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44595.2977777778</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44595.2978356481</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44595.2978935185</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44595.297962963</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44595.2980208333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44595.2980787037</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44595.2981365741</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44595.2981944444</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44595.2982523148</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44595.2983101852</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44595.2983680556</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44595.2984259259</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44595.2984837963</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44595.2985416667</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44595.298599537</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44595.2986574074</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44595.2987152778</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44595.2987731481</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44595.2988310185</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44595.2988888889</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44595.2989467593</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44595.2990046296</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44595.2990625</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44595.2991203704</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44595.2991782407</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44595.2992361111</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44595.2992939815</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44595.2993518519</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44595.2994097222</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44595.2994675926</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44595.299525463</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44595.2995833333</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44595.2996412037</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44595.2997106482</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44595.2997685185</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44595.2998263889</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44595.2998842593</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44595.2999421296</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44595.3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44595.3000578704</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44595.3001157407</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44595.3001736111</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44595.3002314815</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44595.3002893519</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44595.3003472222</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44595.3004050926</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44595.300462963</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44595.3005208333</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44595.3005787037</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44595.3006365741</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44595.3006944444</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44595.3007523148</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44595.3008101852</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44595.3008680556</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44595.3009259259</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44595.3009837963</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44595.3010416667</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44595.301099537</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -279,16 +585,196 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>45.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>47.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>49.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>49.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>48.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>48.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>48.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>48.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>47.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>46.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>49.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>48.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>48.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>46.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>47.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45.1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>49.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>49.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>46.9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45.9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>46.7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>46.7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>49.3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>46.4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>47.8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>49.2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>46.6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>49.8</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>49.7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>48.1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>47.2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>48.3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>49.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48.9</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>47.4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>47.8</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>47.9</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>49.6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>47.3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>45.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>49.2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>47.6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="27210963"/>
-        <c:axId val="61617290"/>
+        <c:axId val="60706972"/>
+        <c:axId val="89374948"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="27210963"/>
+        <c:axId val="60706972"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -311,18 +797,21 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61617290"/>
+        <c:crossAx val="89374948"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.000694444444444444"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61617290"/>
+        <c:axId val="89374948"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -354,21 +843,24 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27210963"/>
+        <c:crossAx val="60706972"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
         <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </c:spPr>
     </c:plotArea>
@@ -387,6 +879,9 @@
         <a:p>
           <a:pPr>
             <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
@@ -400,8 +895,11 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
@@ -411,25 +909,25 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>36360</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>59760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>599040</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>3600</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>562680</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>72720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvPr id="0" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="852840" y="36000"/>
-        <a:ext cx="10361880" cy="5819760"/>
+        <a:off x="0" y="547200"/>
+        <a:ext cx="10377000" cy="4727160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -447,14 +945,51 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H41" activeCellId="1" sqref="A2:B72 H41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P9" activeCellId="0" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="n">
+        <f aca="false">MIN(Data!B2:B61)</f>
+        <v>45.1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <f aca="false">MAX(Data!B2:B61)</f>
+        <v>49.8</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="8" t="n">
+        <f aca="false">AVERAGE(Data!B2:B61)</f>
+        <v>47.6416666666667</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -473,203 +1008,503 @@
   </sheetPr>
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A51" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B72"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A59" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="22.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="22.23"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1"/>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="n">
+        <v>44595.297662037</v>
+      </c>
+      <c r="B2" s="10" t="n">
+        <v>45.2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="n">
+        <v>44595.2977199074</v>
+      </c>
+      <c r="B3" s="10" t="n">
+        <v>45.8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="n">
+        <v>44595.2977777778</v>
+      </c>
+      <c r="B4" s="10" t="n">
+        <v>48.2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="n">
+        <v>44595.2978356481</v>
+      </c>
+      <c r="B5" s="10" t="n">
+        <v>49.3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11" t="n">
+        <v>44595.2978935185</v>
+      </c>
+      <c r="B6" s="10" t="n">
+        <v>49.8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11" t="n">
+        <v>44595.297962963</v>
+      </c>
+      <c r="B7" s="10" t="n">
+        <v>48.7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="n">
+        <v>44595.2980208333</v>
+      </c>
+      <c r="B8" s="10" t="n">
+        <v>45.3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11" t="n">
+        <v>44595.2980787037</v>
+      </c>
+      <c r="B9" s="10" t="n">
+        <v>45.2</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11" t="n">
+        <v>44595.2981365741</v>
+      </c>
+      <c r="B10" s="10" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11" t="n">
+        <v>44595.2981944444</v>
+      </c>
+      <c r="B11" s="10" t="n">
+        <v>48.7</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="n">
+        <v>44595.2982523148</v>
+      </c>
+      <c r="B12" s="10" t="n">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11" t="n">
+        <v>44595.2983101852</v>
+      </c>
+      <c r="B13" s="10" t="n">
+        <v>47.9</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="n">
+        <v>44595.2983680556</v>
+      </c>
+      <c r="B14" s="10" t="n">
+        <v>49.2</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="n">
+        <v>44595.2984259259</v>
+      </c>
+      <c r="B15" s="10" t="n">
+        <v>49.6</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="11" t="n">
+        <v>44595.2984837963</v>
+      </c>
+      <c r="B16" s="10" t="n">
+        <v>48.6</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="11" t="n">
+        <v>44595.2985416667</v>
+      </c>
+      <c r="B17" s="10" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11" t="n">
+        <v>44595.298599537</v>
+      </c>
+      <c r="B18" s="10" t="n">
+        <v>48.7</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="11" t="n">
+        <v>44595.2986574074</v>
+      </c>
+      <c r="B19" s="10" t="n">
+        <v>48.1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="11" t="n">
+        <v>44595.2987152778</v>
+      </c>
+      <c r="B20" s="10" t="n">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="11" t="n">
+        <v>44595.2987731481</v>
+      </c>
+      <c r="B21" s="10" t="n">
+        <v>48.1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="11" t="n">
+        <v>44595.2988310185</v>
+      </c>
+      <c r="B22" s="10" t="n">
+        <v>47.2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="11" t="n">
+        <v>44595.2988888889</v>
+      </c>
+      <c r="B23" s="10" t="n">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="11" t="n">
+        <v>44595.2989467593</v>
+      </c>
+      <c r="B24" s="10" t="n">
+        <v>49.8</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="11" t="n">
+        <v>44595.2990046296</v>
+      </c>
+      <c r="B25" s="10" t="n">
+        <v>48.2</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="11" t="n">
+        <v>44595.2990625</v>
+      </c>
+      <c r="B26" s="10" t="n">
+        <v>48.3</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="11" t="n">
+        <v>44595.2991203704</v>
+      </c>
+      <c r="B27" s="10" t="n">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="11" t="n">
+        <v>44595.2991782407</v>
+      </c>
+      <c r="B28" s="10" t="n">
+        <v>47.7</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="11" t="n">
+        <v>44595.2992361111</v>
+      </c>
+      <c r="B29" s="10" t="n">
+        <v>45.1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="11" t="n">
+        <v>44595.2992939815</v>
+      </c>
+      <c r="B30" s="10" t="n">
+        <v>49.2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="11" t="n">
+        <v>44595.2993518519</v>
+      </c>
+      <c r="B31" s="10" t="n">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="11" t="n">
+        <v>44595.2994097222</v>
+      </c>
+      <c r="B32" s="10" t="n">
+        <v>46.9</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="11" t="n">
+        <v>44595.2994675926</v>
+      </c>
+      <c r="B33" s="10" t="n">
+        <v>45.9</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="11" t="n">
+        <v>44595.299525463</v>
+      </c>
+      <c r="B34" s="10" t="n">
+        <v>46.7</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="11" t="n">
+        <v>44595.2995833333</v>
+      </c>
+      <c r="B35" s="10" t="n">
+        <v>46.7</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="11" t="n">
+        <v>44595.2996412037</v>
+      </c>
+      <c r="B36" s="10" t="n">
+        <v>49.3</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="11" t="n">
+        <v>44595.2997106482</v>
+      </c>
+      <c r="B37" s="10" t="n">
+        <v>46.4</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="11" t="n">
+        <v>44595.2997685185</v>
+      </c>
+      <c r="B38" s="10" t="n">
+        <v>47.8</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="11" t="n">
+        <v>44595.2998263889</v>
+      </c>
+      <c r="B39" s="10" t="n">
+        <v>49.2</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="11" t="n">
+        <v>44595.2998842593</v>
+      </c>
+      <c r="B40" s="10" t="n">
+        <v>45.2</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="11" t="n">
+        <v>44595.2999421296</v>
+      </c>
+      <c r="B41" s="10" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="11" t="n">
+        <v>44595.3</v>
+      </c>
+      <c r="B42" s="10" t="n">
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="11" t="n">
+        <v>44595.3000578704</v>
+      </c>
+      <c r="B43" s="10" t="n">
+        <v>49.8</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="11" t="n">
+        <v>44595.3001157407</v>
+      </c>
+      <c r="B44" s="10" t="n">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="11" t="n">
+        <v>44595.3001736111</v>
+      </c>
+      <c r="B45" s="10" t="n">
+        <v>48.1</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="11" t="n">
+        <v>44595.3002314815</v>
+      </c>
+      <c r="B46" s="10" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="11" t="n">
+        <v>44595.3002893519</v>
+      </c>
+      <c r="B47" s="10" t="n">
+        <v>47.2</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="11" t="n">
+        <v>44595.3003472222</v>
+      </c>
+      <c r="B48" s="10" t="n">
+        <v>48.3</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="11" t="n">
+        <v>44595.3004050926</v>
+      </c>
+      <c r="B49" s="10" t="n">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="11" t="n">
+        <v>44595.300462963</v>
+      </c>
+      <c r="B50" s="10" t="n">
+        <v>48.9</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="11" t="n">
+        <v>44595.3005208333</v>
+      </c>
+      <c r="B51" s="10" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="11" t="n">
+        <v>44595.3005787037</v>
+      </c>
+      <c r="B52" s="10" t="n">
+        <v>47.4</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="11" t="n">
+        <v>44595.3006365741</v>
+      </c>
+      <c r="B53" s="10" t="n">
+        <v>47.8</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="11" t="n">
+        <v>44595.3006944444</v>
+      </c>
+      <c r="B54" s="10" t="n">
+        <v>47.9</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="11" t="n">
+        <v>44595.3007523148</v>
+      </c>
+      <c r="B55" s="10" t="n">
+        <v>49.6</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="11" t="n">
+        <v>44595.3008101852</v>
+      </c>
+      <c r="B56" s="10" t="n">
+        <v>45.4</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="11" t="n">
+        <v>44595.3008680556</v>
+      </c>
+      <c r="B57" s="10" t="n">
+        <v>47.3</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="11" t="n">
+        <v>44595.3009259259</v>
+      </c>
+      <c r="B58" s="10" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="11" t="n">
+        <v>44595.3009837963</v>
+      </c>
+      <c r="B59" s="10" t="n">
+        <v>45.7</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="11" t="n">
+        <v>44595.3010416667</v>
+      </c>
+      <c r="B60" s="10" t="n">
+        <v>49.2</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="11" t="n">
+        <v>44595.301099537</v>
+      </c>
+      <c r="B61" s="10" t="n">
+        <v>47.6</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
